--- a/target/classes/TestData.xlsx
+++ b/target/classes/TestData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>TCName</t>
   </si>
@@ -41,6 +41,12 @@
   </si>
   <si>
     <t>TC2_ValidateLogin</t>
+  </si>
+  <si>
+    <t>Welcome Kunal</t>
+  </si>
+  <si>
+    <t>LoggedUser</t>
   </si>
 </sst>
 </file>
@@ -358,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -369,9 +375,11 @@
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -381,8 +389,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -392,8 +403,11 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>

--- a/target/classes/TestData.xlsx
+++ b/target/classes/TestData.xlsx
@@ -367,7 +367,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/target/classes/TestData.xlsx
+++ b/target/classes/TestData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>TCName</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>LoggedUser</t>
+  </si>
+  <si>
+    <t>TC3_ValidateLogin</t>
   </si>
 </sst>
 </file>
@@ -364,10 +367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -395,7 +398,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -416,6 +419,20 @@
       </c>
       <c r="C3" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
